--- a/common-poi/writeExcelTest4.xlsx
+++ b/common-poi/writeExcelTest4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>测试标题</t>
   </si>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
@@ -501,66 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -575,73 +515,67 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +596,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
-      <formula1>"成绩"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
-      <formula1>"成绩"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
-      <formula1>"成绩"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
-      <formula1>"成绩"</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
-      <formula1>"成绩"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" sqref="D4" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true">
       <formula1>"成绩"</formula1>
     </dataValidation>
